--- a/patient_data/patient_71.xlsx
+++ b/patient_data/patient_71.xlsx
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -705,16 +705,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -782,16 +782,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1318,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1629,19 +1629,19 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1706,19 +1706,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1783,19 +1783,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1860,19 +1860,19 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
